--- a/Initial Product Strategy and Plan/Illustrate a Product Roadmap.xlsx
+++ b/Initial Product Strategy and Plan/Illustrate a Product Roadmap.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27018"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80b4d01e8c5b5425/Documents/Skill Up/Product Management/Course 3 Files/Module 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{D4F564A7-A96A-45A7-8759-7EC1E1BB2A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFE86773-E478-4344-B0CE-C6DA689A27F6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BB9A860A-725C-4889-91CA-19D4B8F7FBF5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="2" r:id="rId1"/>
     <sheet name="Blank Template" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Product Roadmap for Play Doggie Play LLC</t>
   </si>
@@ -84,14 +83,47 @@
 * Release the "Destructive Dogs" toy series</t>
   </si>
   <si>
-    <t xml:space="preserve">Exercise 5: Product Roadmap for </t>
+    <t>Exercise 5: Product Roadmap for HEPA Air Filters</t>
+  </si>
+  <si>
+    <t>Time Frame 1 (Design Phase)</t>
+  </si>
+  <si>
+    <t>Time Frame 2 (Development Phase)</t>
+  </si>
+  <si>
+    <t>Dual HEPA Purifier</t>
+  </si>
+  <si>
+    <t>Conduct market research and analysis to identify customer requirements and preferences.</t>
+  </si>
+  <si>
+    <t>Finalize product design based on market research findings. Develop prototype for testing and evaluation.</t>
+  </si>
+  <si>
+    <t>Easy-Replace HEPA Filter</t>
+  </si>
+  <si>
+    <t>Design new HEPA filter with easy-replace mechanism. Evaluate filter materials and durability.</t>
+  </si>
+  <si>
+    <t>Develop manufacturing process for cost-effective production of HEPA filters. Test filter performance and lifespan.</t>
+  </si>
+  <si>
+    <t>Enhanced Motor Strength</t>
+  </si>
+  <si>
+    <t>Research and select motors with increased strength and efficiency. Conduct performance testing to ensure enhanced filtration coverage.</t>
+  </si>
+  <si>
+    <t>Integrate selected motors into purifier design. Test purifiers for optimal motor performance and filtration coverage.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -150,11 +182,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -162,6 +256,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -171,10 +271,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,169 +602,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1944B87-E351-47B6-B2C7-05107FBA5B5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:L6"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="12" width="17.7109375" customWidth="1"/>
+    <col min="4" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:13" ht="15" customHeight="1">
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="4:13" ht="15" customHeight="1">
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+    <row r="2" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D5" s="3" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D7" s="3" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D9" s="3" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="4:13">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
       <c r="K11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="D1:L2"/>
-    <mergeCell ref="D5:F6"/>
     <mergeCell ref="D9:F10"/>
     <mergeCell ref="D7:F8"/>
     <mergeCell ref="G5:I6"/>
@@ -661,6 +768,11 @@
     <mergeCell ref="J7:L8"/>
     <mergeCell ref="G9:I10"/>
     <mergeCell ref="J9:L10"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="D1:L2"/>
+    <mergeCell ref="D5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
@@ -668,139 +780,167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5982DAE-2E6C-4649-9F98-4FB4AF5B6502}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="12" width="17.7109375" customWidth="1"/>
+    <col min="4" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:13" ht="15" customHeight="1">
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="4:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="4:13" ht="30" customHeight="1">
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+    <row r="2" spans="4:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="4:13" ht="26.25" customHeight="1">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="4:13">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="4:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
       <c r="K11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="J7:L8"/>
+    <mergeCell ref="D9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:L10"/>
     <mergeCell ref="D1:L2"/>
     <mergeCell ref="D3:F4"/>
     <mergeCell ref="G3:I4"/>
@@ -808,12 +948,6 @@
     <mergeCell ref="D5:F6"/>
     <mergeCell ref="G5:I6"/>
     <mergeCell ref="J5:L6"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="G7:I8"/>
-    <mergeCell ref="J7:L8"/>
-    <mergeCell ref="D9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
